--- a/ResultadoEleicoesDistritos/LISBOA_LOURINHÃ.xlsx
+++ b/ResultadoEleicoesDistritos/LISBOA_LOURINHÃ.xlsx
@@ -597,64 +597,64 @@
         <v>7123</v>
       </c>
       <c r="H2" t="n">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="I2" t="n">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="J2" t="n">
-        <v>2959</v>
+        <v>2981</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>815</v>
+        <v>761</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="N2" t="n">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="S2" t="n">
         <v>299</v>
       </c>
       <c r="T2" t="n">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="U2" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="V2" t="n">
-        <v>4547</v>
+        <v>4571</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>4595</v>
+        <v>4584</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z2" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AA2" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
